--- a/medicine/Premiers secours et secourisme/Sécurité_des_machines/Sécurité_des_machines.xlsx
+++ b/medicine/Premiers secours et secourisme/Sécurité_des_machines/Sécurité_des_machines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9curit%C3%A9_des_machines</t>
+          <t>Sécurité_des_machines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Cet article traite de la sécurité des machines dans le milieu professionnel.
 La dénomination machine concerne autant les machines industrielles de type machine-outil, presse plieuse, moulage par injection que la robotique industrielle et les nouvelles technologies (par exemple véhicule à guidage automatique, drone).
 Les éléments en mouvement d’une machine, ainsi que l’énergie qui l’alimente, peuvent générer des risques. Pour la sécurité et la santé des travailleurs, ces risques doivent être identifiés, évalués, et réduits si besoin.
-Une analyse des risques doit être réalisée par le fabricant lors de la conception. Il peut s’appuyer sur la brochure INRS ED6389[1] "Évaluation des risques lors de la conception de machines" pour la réaliser. Il conçoit la machine de manière à supprimer ou réduire les risques identifiés.  
-Une analyse des risques doit également être réalisée par l’utilisateur pour s’assurer que la machine ne présente pas de risque, et ce même à la suite d'une modification. Il peut s’appuyer sur la brochure ED6323[2] "Aide à la détection des risques liés à l'utilisation d'une machine". Il en déduit les mesures de réduction du risque à mettre en place.
+Une analyse des risques doit être réalisée par le fabricant lors de la conception. Il peut s’appuyer sur la brochure INRS ED6389 "Évaluation des risques lors de la conception de machines" pour la réaliser. Il conçoit la machine de manière à supprimer ou réduire les risques identifiés.  
+Une analyse des risques doit également être réalisée par l’utilisateur pour s’assurer que la machine ne présente pas de risque, et ce même à la suite d'une modification. Il peut s’appuyer sur la brochure ED6323 "Aide à la détection des risques liés à l'utilisation d'une machine". Il en déduit les mesures de réduction du risque à mettre en place.
 Ces deux démarches d’évaluation des risques sont complémentaires et permettent de couvrir l’ensemble des risques dans les différentes phases de vie de la machine, de la conception jusqu’au démantèlement. 
 Au sein de l’Union Européenne, des directives imposent que :
-le fabricant conçoive et construise sa machine en s’appuyant sur son évaluation des risques (directive "Machines" 2006/42/CE[3])
-l’utilisateur évalue les risques conformément aux principes généraux de prévention (directive 2009/104/CE[4])</t>
+le fabricant conçoive et construise sa machine en s’appuyant sur son évaluation des risques (directive "Machines" 2006/42/CE)
+l’utilisateur évalue les risques conformément aux principes généraux de prévention (directive 2009/104/CE)</t>
         </is>
       </c>
     </row>
